--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-organization-parent.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-organization-parent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>DSF Parent Organization</t>
+    <t>OrganizationParent</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-26</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>A Parent Organization as Meta Organization (e.g., Consortia) in the DSF context with restrictions to enforce DSF specific details.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -297,7 +294,7 @@
     <t>Organization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {http://dsf.dev/fhir/StructureDefinition/meta|2.0.0}
 </t>
   </si>
   <si>
@@ -355,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -603,7 +600,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -712,7 +709,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -795,7 +792,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -994,7 +991,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -1061,7 +1058,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1305,57 +1302,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -1363,10 +1358,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1385,17 +1380,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.12109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="45.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1404,156 +1399,156 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.58203125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="86.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="181.4296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AL1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AM1" t="s" s="1">
+      <c r="AN1" t="s" s="1">
         <v>74</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1561,28 +1556,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1633,28 +1628,28 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>20</v>
@@ -1662,10 +1657,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1673,31 +1668,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1747,13 +1742,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1776,10 +1771,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1787,28 +1782,28 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1859,19 +1854,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1888,10 +1883,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1899,31 +1894,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1973,19 +1968,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2002,10 +1997,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2013,10 +2008,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2028,16 +2023,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2063,43 +2058,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2116,21 +2111,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2142,16 +2137,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2201,25 +2196,25 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2230,22 +2225,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
       </c>
@@ -2256,16 +2251,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2315,25 +2310,25 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2344,22 +2339,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
       </c>
@@ -2370,16 +2365,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2429,25 +2424,25 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -2458,45 +2453,45 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2545,25 +2540,25 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH10" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -2574,10 +2569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2585,32 +2580,32 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2647,84 +2642,84 @@
         <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI11" t="s" s="2">
+      <c r="AJ11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2773,39 +2768,39 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2813,10 +2808,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2828,13 +2823,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2885,25 +2880,25 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -2914,22 +2909,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
       </c>
@@ -2940,16 +2935,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2987,37 +2982,37 @@
         <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AG14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3028,10 +3023,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3039,34 +3034,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3091,49 +3086,49 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3144,10 +3139,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3155,34 +3150,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3207,49 +3202,49 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3260,10 +3255,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3271,104 +3266,104 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T17" t="s" s="2">
+      <c r="U17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="U17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
@@ -3376,10 +3371,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3387,31 +3382,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3425,64 +3420,64 @@
         <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3490,10 +3485,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3501,28 +3496,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3573,28 +3568,28 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -3602,10 +3597,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3613,31 +3608,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3687,28 +3682,28 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>20</v>
@@ -3716,10 +3711,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3727,117 +3722,117 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="J21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="O21" t="s" s="2">
+      <c r="P21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q21" t="s" s="2">
+      <c r="R21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3845,11 +3840,11 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
       </c>
@@ -3857,22 +3852,22 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3897,63 +3892,63 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3961,34 +3956,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K23" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4037,28 +4032,28 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>20</v>
@@ -4066,10 +4061,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4077,11 +4072,11 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4092,19 +4087,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4153,25 +4148,25 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4182,10 +4177,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4193,11 +4188,11 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4208,19 +4203,19 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4269,28 +4264,28 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4298,10 +4293,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4309,11 +4304,11 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4324,19 +4319,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4385,28 +4380,28 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4414,10 +4409,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4425,32 +4420,32 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4499,28 +4494,28 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4528,10 +4523,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4539,11 +4534,11 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4554,19 +4549,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4615,25 +4610,25 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH28" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -4644,10 +4639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4655,10 +4650,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4670,13 +4665,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4727,25 +4722,25 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -4756,22 +4751,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
       </c>
@@ -4782,16 +4777,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4841,25 +4836,25 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH30" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -4870,45 +4865,45 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="N31" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -4957,25 +4952,25 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -4986,10 +4981,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4997,10 +4992,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5012,17 +5007,17 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5047,49 +5042,49 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5100,10 +5095,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5111,10 +5106,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5126,17 +5121,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5185,25 +5180,25 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5214,10 +5209,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5225,11 +5220,11 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5240,17 +5235,17 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5299,25 +5294,25 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5328,10 +5323,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5339,10 +5334,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5354,17 +5349,17 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5413,25 +5408,25 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -5442,10 +5437,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5453,11 +5448,11 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5468,17 +5463,17 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5527,25 +5522,25 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-organization-parent.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-organization-parent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
